--- a/Organización/Ventas/PTL_Requerimiento.xlsx
+++ b/Organización/Ventas/PTL_Requerimiento.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Novela\Documents\Qualtop\qtp\Organización\Ventas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="495" windowWidth="11280" windowHeight="7575"/>
+    <workbookView xWindow="240" yWindow="495" windowWidth="11280" windowHeight="7575" tabRatio="819" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Inicio" sheetId="8" r:id="rId1"/>
     <sheet name="Productos CONTPAQi" sheetId="4" r:id="rId2"/>
-    <sheet name="Productos Adicionales" sheetId="5" r:id="rId3"/>
+    <sheet name="Productos Actualizaciones" sheetId="5" r:id="rId3"/>
     <sheet name="Servicios" sheetId="6" r:id="rId4"/>
     <sheet name="Desarrollo" sheetId="7" r:id="rId5"/>
     <sheet name="Aspel" sheetId="9" r:id="rId6"/>
@@ -26,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="200">
   <si>
     <t>DOCUMENTO DE REQUERIMIENTO</t>
   </si>
@@ -55,12 +60,6 @@
     <t>CONTPAQi Factura electronica</t>
   </si>
   <si>
-    <t xml:space="preserve">De 1 a 15 </t>
-  </si>
-  <si>
-    <t>De 15 a más</t>
-  </si>
-  <si>
     <t>CONTPAQi Bancos</t>
   </si>
   <si>
@@ -83,9 +82,6 @@
   </si>
   <si>
     <t xml:space="preserve">Actualización Normal </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cuántas facturas emite al mes </t>
   </si>
   <si>
     <t>CONTPAQi Nominas</t>
@@ -265,27 +261,9 @@
     <t>¿Lleva control de inventario?</t>
   </si>
   <si>
-    <t>Más de 50</t>
-  </si>
-  <si>
     <t>SÍ</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">SÍ </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(básico, Status pagado y no pagado en documentos)</t>
-    </r>
-  </si>
-  <si>
     <t>Monoempresa y Monousuario</t>
   </si>
   <si>
@@ -295,21 +273,6 @@
     <t>Personalizado de campos en factura</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">De 1 a 50 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(y si no le es importante la personalización)</t>
-    </r>
-  </si>
-  <si>
     <t>Empresas grandes con un extenso catálogo de proveedores o Clientes</t>
   </si>
   <si>
@@ -452,9 +415,6 @@
   </si>
   <si>
     <t>Reporte de cada cuenta bancaria</t>
-  </si>
-  <si>
-    <t>Flujo de efectivo (ingresos, egresos)</t>
   </si>
   <si>
     <t xml:space="preserve">Conciliación de polizas </t>
@@ -582,12 +542,6 @@
     <t xml:space="preserve">CONTPAQi CFDI+ Facturación en línea, </t>
   </si>
   <si>
-    <t>RENTA</t>
-  </si>
-  <si>
-    <t>TRADICIONAL</t>
-  </si>
-  <si>
     <t>CFDI+</t>
   </si>
   <si>
@@ -628,9 +582,6 @@
   </si>
   <si>
     <t>Licencia Adicional</t>
-  </si>
-  <si>
-    <t>Existen dos tipos de Licenciamiento</t>
   </si>
   <si>
     <t>Es un sistema que trabaja de forma independiente a tu red. Solo se vende para sistemas actualizados y el número de usuarios debe ser menor o igual al de la Licencia Padre. Solo aplica para productos tradicionales.</t>
@@ -661,6 +612,87 @@
   </si>
   <si>
     <t>sobre algún programa. Los costos son por hora</t>
+  </si>
+  <si>
+    <t>NO (Lleva un control muy básico)</t>
+  </si>
+  <si>
+    <t>Tomar decisiones a futuro</t>
+  </si>
+  <si>
+    <t>Estado de cuenta bancario</t>
+  </si>
+  <si>
+    <t>¿En qué fechas te pudiera convenir más hacer un gasto?</t>
+  </si>
+  <si>
+    <t>Ingresos/Egresos proyectados -----&gt; Saldo Proyectado</t>
+  </si>
+  <si>
+    <t>Historial saldo contable vs bancario = proyectoado</t>
+  </si>
+  <si>
+    <t>Flujo de efectivo (ingresos, egresos) - 3 saldos, Cuenta bancaria, Cliente, Categorías (Gastos de oficina)</t>
+  </si>
+  <si>
+    <t>De 1 a 15 empleados</t>
+  </si>
+  <si>
+    <t>De 15 a más empleados</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>CONTPAQi Facuta Electrónica</t>
+  </si>
+  <si>
+    <t>Contpaq i Comercial</t>
+  </si>
+  <si>
+    <t>Aspel SAE</t>
+  </si>
+  <si>
+    <t>Aspel COI</t>
+  </si>
+  <si>
+    <t>Aspel NOI</t>
+  </si>
+  <si>
+    <t>Aspel Banco</t>
+  </si>
+  <si>
+    <t>Aspel Facture</t>
+  </si>
+  <si>
+    <t>Aspel Facture Móvil Básico</t>
+  </si>
+  <si>
+    <t>Aspel Facture Móvil Premium</t>
+  </si>
+  <si>
+    <t>Contpaq i Factura Electrónica Multi empresa</t>
+  </si>
+  <si>
+    <t>Contpaq i Factura Electrónica Mono empresa</t>
+  </si>
+  <si>
+    <t>Apps</t>
+  </si>
+  <si>
+    <t>Actualizaciones (Renta o Tradicionales). Paqs. Nuevos Puede ser en Renta o Tradicionales</t>
+  </si>
+  <si>
+    <t>Actualizaciones [Trad.] (Renta [Renovaciones] o Tradicionales). Paqs. Nuevos Sólo en renta</t>
+  </si>
+  <si>
+    <t>Existen dos tipos de Licenciamiento que se pueden actualizar</t>
+  </si>
+  <si>
+    <t>Renta (Renovaciones)</t>
+  </si>
+  <si>
+    <t>Tradicional (Actualizaciones)</t>
   </si>
 </sst>
 </file>
@@ -902,7 +934,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="71">
+  <borders count="72">
     <border>
       <left/>
       <right/>
@@ -1772,11 +1804,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="311">
+  <cellXfs count="324">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1902,9 +1945,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1986,210 +2026,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2199,12 +2039,21 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2212,6 +2061,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2237,6 +2089,27 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
@@ -2261,98 +2134,182 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="55" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="56" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2363,7 +2320,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
@@ -2374,36 +2330,146 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="69" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="70" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2424,56 +2490,44 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="70" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="65" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="66" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="56" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="71" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2484,12 +2538,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2531,7 +2588,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2566,7 +2623,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2777,11 +2834,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.7109375" customWidth="1"/>
@@ -2810,7 +2867,7 @@
     </row>
     <row r="6" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="40"/>
@@ -2821,7 +2878,7 @@
     </row>
     <row r="7" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
@@ -2832,7 +2889,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="56" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
@@ -2843,7 +2900,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
@@ -2854,7 +2911,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="57" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B10" s="57"/>
       <c r="C10" s="57"/>
@@ -2865,7 +2922,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="57" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B11" s="57"/>
       <c r="C11" s="57"/>
@@ -2894,7 +2951,7 @@
     </row>
     <row r="14" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A14" s="49" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B14" s="49"/>
       <c r="C14" s="38"/>
@@ -2908,7 +2965,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="48" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C15" s="38"/>
       <c r="D15" s="38"/>
@@ -2918,10 +2975,10 @@
     </row>
     <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B16" s="48" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C16" s="38"/>
       <c r="D16" s="38"/>
@@ -2931,26 +2988,26 @@
     </row>
     <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="48" t="s">
         <v>82</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="47" t="s">
+        <v>77</v>
+      </c>
+      <c r="B18" s="48" t="s">
         <v>83</v>
-      </c>
-      <c r="B18" s="48" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="47" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B19" s="48" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2958,47 +3015,47 @@
         <v>5</v>
       </c>
       <c r="B20" s="48" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="47" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B21" s="48" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B22" s="48" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B23" s="48" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="47" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B24" s="48" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="47" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B25" s="48" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="C25"/>
       <c r="D25"/>
@@ -3008,10 +3065,10 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B26" s="62" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3025,7 +3082,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3035,11 +3092,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:G62"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" customWidth="1"/>
@@ -3053,101 +3110,89 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="164" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="164"/>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
+      <c r="A2" s="170" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="170"/>
+      <c r="C2" s="170"/>
+      <c r="D2" s="170"/>
+      <c r="E2" s="170"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="176" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="177"/>
-      <c r="C3" s="177"/>
-      <c r="D3" s="177"/>
-      <c r="E3" s="178"/>
+      <c r="A3" s="184" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="185"/>
+      <c r="C3" s="185"/>
+      <c r="D3" s="185"/>
+      <c r="E3" s="186"/>
     </row>
     <row r="4" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="179" t="s">
+      <c r="A4" s="187" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="188"/>
+      <c r="C4" s="188"/>
+      <c r="D4" s="188"/>
+      <c r="E4" s="189"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="174"/>
+      <c r="C5" s="190" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="190"/>
+      <c r="E5" s="174"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="191" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="192"/>
+      <c r="C6" s="182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="182"/>
+      <c r="E6" s="183"/>
+    </row>
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="174"/>
+      <c r="C7" s="74" t="s">
+        <v>173</v>
+      </c>
+      <c r="D7" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="135"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="171" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="172"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B9" s="174"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="144" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="148"/>
+      <c r="C10" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="63" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="180"/>
-      <c r="C4" s="180"/>
-      <c r="D4" s="180"/>
-      <c r="E4" s="181"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="153"/>
-      <c r="C5" s="154" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="154"/>
-      <c r="E5" s="153"/>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="155" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="156"/>
-      <c r="C6" s="126" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="126"/>
-      <c r="E6" s="127"/>
-    </row>
-    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A7" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="153"/>
-      <c r="C7" s="74" t="s">
-        <v>72</v>
-      </c>
-      <c r="D7" s="160" t="s">
-        <v>66</v>
-      </c>
-      <c r="E7" s="161"/>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="165" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="166"/>
-      <c r="C8" s="174" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="174"/>
-      <c r="E8" s="175"/>
-    </row>
-    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.25">
-      <c r="A9" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" s="153"/>
-      <c r="C9" s="75" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="159"/>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="123" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>70</v>
       </c>
       <c r="E10" s="42" t="s">
         <v>2</v>
@@ -3155,85 +3200,85 @@
       <c r="G10" s="66"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="153"/>
+      <c r="A11" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" s="174"/>
       <c r="C11" s="55"/>
       <c r="D11" s="54"/>
       <c r="E11" s="4"/>
       <c r="G11" s="66"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="123" t="s">
-        <v>57</v>
-      </c>
-      <c r="B12" s="127"/>
-      <c r="C12" s="124" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="126"/>
-      <c r="E12" s="157"/>
+      <c r="A12" s="144" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="148"/>
+      <c r="C12" s="145" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="147"/>
+      <c r="E12" s="150"/>
     </row>
     <row r="13" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="30" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="77" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="159"/>
+      <c r="D13" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="135"/>
     </row>
     <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="78" t="s">
-        <v>86</v>
-      </c>
-      <c r="B14" s="79" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="172" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="172"/>
-      <c r="E14" s="173"/>
+      <c r="A14" s="77" t="s">
+        <v>80</v>
+      </c>
+      <c r="B14" s="78" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="180" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="180"/>
+      <c r="E14" s="181"/>
     </row>
     <row r="15" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="170" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="167" t="s">
-        <v>178</v>
+      <c r="A15" s="178" t="s">
+        <v>93</v>
+      </c>
+      <c r="B15" s="175" t="s">
+        <v>168</v>
       </c>
       <c r="C15" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="D15" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="E15" s="153"/>
+      <c r="D15" s="173" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="174"/>
     </row>
     <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="170"/>
-      <c r="B16" s="168"/>
+      <c r="A16" s="178"/>
+      <c r="B16" s="176"/>
       <c r="C16" s="60" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D16" s="50" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E16" s="51" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="171"/>
-      <c r="B17" s="169"/>
+      <c r="A17" s="179"/>
+      <c r="B17" s="177"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44"/>
@@ -3246,229 +3291,243 @@
       <c r="E18" s="44"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="142" t="s">
-        <v>135</v>
-      </c>
-      <c r="B19" s="143"/>
-      <c r="C19" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" s="162"/>
-      <c r="E19" s="163"/>
+      <c r="A19" s="207" t="s">
+        <v>128</v>
+      </c>
+      <c r="B19" s="208"/>
+      <c r="C19" s="193" t="s">
+        <v>129</v>
+      </c>
+      <c r="D19" s="193"/>
+      <c r="E19" s="194"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="123" t="s">
-        <v>137</v>
-      </c>
-      <c r="B20" s="124"/>
-      <c r="C20" s="125" t="s">
-        <v>138</v>
-      </c>
-      <c r="D20" s="126"/>
-      <c r="E20" s="127"/>
+      <c r="A20" s="144" t="s">
+        <v>130</v>
+      </c>
+      <c r="B20" s="145"/>
+      <c r="C20" s="146" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="123" t="s">
-        <v>100</v>
-      </c>
-      <c r="B21" s="124"/>
-      <c r="C21" s="125" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
+      <c r="A21" s="144" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="145"/>
+      <c r="C21" s="146" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="147"/>
+      <c r="E21" s="148"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="136" t="s">
+    <row r="22" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="201" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="202"/>
+      <c r="C22" s="124" t="s">
+        <v>179</v>
+      </c>
+      <c r="D22" s="125"/>
+      <c r="E22" s="126"/>
+      <c r="F22" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="203" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="204"/>
+      <c r="C23" s="160" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="161"/>
+      <c r="E23" s="162"/>
+      <c r="F23" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="203" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="204"/>
+      <c r="C24" s="160" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="137"/>
-      <c r="C22" s="191" t="s">
+      <c r="D24" s="161"/>
+      <c r="E24" s="162"/>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="203" t="s">
+        <v>110</v>
+      </c>
+      <c r="B25" s="204"/>
+      <c r="C25" s="160" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="161"/>
+      <c r="E25" s="162"/>
+      <c r="F25" s="33" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="205" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" s="206"/>
+      <c r="C26" s="163" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="164"/>
+      <c r="E26" s="165"/>
+      <c r="F26" t="s">
+        <v>177</v>
+      </c>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="149"/>
+      <c r="C27" s="149" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="192"/>
-      <c r="E22" s="193"/>
-    </row>
-    <row r="23" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="138" t="s">
-        <v>114</v>
-      </c>
-      <c r="B23" s="139"/>
-      <c r="C23" s="182" t="s">
+      <c r="D27" s="149"/>
+      <c r="E27" s="150"/>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168" t="s">
+        <v>116</v>
+      </c>
+      <c r="D28" s="168"/>
+      <c r="E28" s="169"/>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="144" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="183"/>
-      <c r="E23" s="184"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="138" t="s">
+      <c r="B29" s="147"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="148"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="131" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="132"/>
+      <c r="C30" s="133" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="134"/>
+      <c r="E30" s="135"/>
+    </row>
+    <row r="31" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="144" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="145"/>
+      <c r="C31" s="146" t="s">
+        <v>124</v>
+      </c>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+    </row>
+    <row r="32" spans="1:7" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="136" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="137"/>
+      <c r="C32" s="142" t="s">
+        <v>119</v>
+      </c>
+      <c r="D32" s="142"/>
+      <c r="E32" s="143"/>
+      <c r="G32" s="67"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="138"/>
+      <c r="B33" s="139"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="143"/>
+      <c r="G33" s="67"/>
+    </row>
+    <row r="34" spans="1:7" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="140"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="143"/>
+      <c r="G34" s="67"/>
+    </row>
+    <row r="35" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="166" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="149"/>
+      <c r="C35" s="149" t="s">
+        <v>126</v>
+      </c>
+      <c r="D35" s="149"/>
+      <c r="E35" s="150"/>
+      <c r="G35" s="67"/>
+    </row>
+    <row r="36" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="153" t="s">
         <v>115</v>
       </c>
-      <c r="B24" s="139"/>
-      <c r="C24" s="182" t="s">
-        <v>119</v>
-      </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="184"/>
-    </row>
-    <row r="25" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="138" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="139"/>
-      <c r="C25" s="182" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="184"/>
-      <c r="F25" s="33"/>
-    </row>
-    <row r="26" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="140" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="141"/>
-      <c r="C26" s="185" t="s">
-        <v>147</v>
-      </c>
-      <c r="D26" s="186"/>
-      <c r="E26" s="187"/>
-      <c r="G26" s="58"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="134" t="s">
-        <v>127</v>
-      </c>
-      <c r="B27" s="135"/>
-      <c r="C27" s="135" t="s">
-        <v>128</v>
-      </c>
-      <c r="D27" s="135"/>
-      <c r="E27" s="157"/>
-      <c r="G27" s="58"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="188" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="189"/>
-      <c r="C28" s="189" t="s">
-        <v>123</v>
-      </c>
-      <c r="D28" s="189"/>
-      <c r="E28" s="190"/>
-      <c r="G28" s="58"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="123" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="126"/>
-      <c r="C29" s="126"/>
-      <c r="D29" s="126"/>
-      <c r="E29" s="127"/>
-      <c r="G29" s="58"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="158" t="s">
-        <v>67</v>
-      </c>
-      <c r="B30" s="196"/>
-      <c r="C30" s="197" t="s">
-        <v>3</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="159"/>
-    </row>
-    <row r="31" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="123" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="124"/>
-      <c r="C31" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="D31" s="126"/>
-      <c r="E31" s="127"/>
-    </row>
-    <row r="32" spans="1:7" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="199" t="s">
-        <v>130</v>
-      </c>
-      <c r="B32" s="200"/>
-      <c r="C32" s="205" t="s">
-        <v>126</v>
-      </c>
-      <c r="D32" s="205"/>
-      <c r="E32" s="206"/>
-      <c r="G32" s="67"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="201"/>
-      <c r="B33" s="202"/>
-      <c r="C33" s="205"/>
-      <c r="D33" s="205"/>
-      <c r="E33" s="206"/>
-      <c r="G33" s="67"/>
-    </row>
-    <row r="34" spans="1:7" s="38" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="203"/>
-      <c r="B34" s="204"/>
-      <c r="C34" s="205"/>
-      <c r="D34" s="205"/>
-      <c r="E34" s="206"/>
-      <c r="G34" s="67"/>
-    </row>
-    <row r="35" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="134" t="s">
+      <c r="B36" s="154"/>
+      <c r="C36" s="151" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="151"/>
+      <c r="E36" s="152"/>
+    </row>
+    <row r="37" spans="1:7" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="155" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="156"/>
+      <c r="C37" s="156" t="s">
         <v>132</v>
       </c>
-      <c r="B35" s="135"/>
-      <c r="C35" s="135" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="135"/>
-      <c r="E35" s="157"/>
-      <c r="G35" s="67"/>
-    </row>
-    <row r="36" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="209" t="s">
-        <v>122</v>
-      </c>
-      <c r="B36" s="210"/>
-      <c r="C36" s="207" t="s">
-        <v>179</v>
-      </c>
-      <c r="D36" s="207"/>
-      <c r="E36" s="208"/>
-    </row>
-    <row r="37" spans="1:7" s="38" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="211" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="212"/>
-      <c r="C37" s="212" t="s">
-        <v>139</v>
-      </c>
-      <c r="D37" s="212"/>
-      <c r="E37" s="213"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="157"/>
     </row>
     <row r="38" spans="1:7" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="40" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="214" t="s">
-        <v>134</v>
-      </c>
-      <c r="B42" s="215"/>
+      <c r="A42" s="158" t="s">
+        <v>127</v>
+      </c>
+      <c r="B42" s="159"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>10</v>
+        <v>181</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -3481,45 +3540,49 @@
       <c r="E44" s="33"/>
     </row>
     <row r="45" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-      <c r="B45" s="4"/>
+      <c r="A45" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>182</v>
+      </c>
       <c r="D45" s="68"/>
       <c r="E45" s="68"/>
     </row>
     <row r="46" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="144" t="s">
-        <v>100</v>
-      </c>
-      <c r="B46" s="145"/>
+      <c r="A46" s="209" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="210"/>
       <c r="C46"/>
       <c r="E46"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="146" t="s">
-        <v>102</v>
-      </c>
-      <c r="B47" s="149" t="s">
-        <v>101</v>
+      <c r="A47" s="211" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="214" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="147"/>
-      <c r="B48" s="150"/>
+      <c r="A48" s="212"/>
+      <c r="B48" s="215"/>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="147"/>
-      <c r="B49" s="150"/>
+      <c r="A49" s="212"/>
+      <c r="B49" s="215"/>
     </row>
     <row r="50" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="148"/>
-      <c r="B50" s="151"/>
+      <c r="A50" s="213"/>
+      <c r="B50" s="216"/>
     </row>
     <row r="51" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="69" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B51" s="53" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D51" s="32"/>
     </row>
@@ -3530,51 +3593,97 @@
       <c r="D53" s="34"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="128" t="s">
-        <v>25</v>
-      </c>
-      <c r="B54" s="129"/>
+      <c r="A54" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="B54" s="128"/>
       <c r="C54" s="71"/>
     </row>
     <row r="55" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
-        <v>26</v>
-      </c>
-      <c r="B55" s="81"/>
+      <c r="A55" s="79" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="80"/>
       <c r="C55" s="70"/>
     </row>
     <row r="56" spans="1:4" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="194" t="s">
-        <v>97</v>
-      </c>
-      <c r="B56" s="195"/>
+      <c r="A56" s="129" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="130"/>
       <c r="C56" s="68"/>
     </row>
     <row r="58" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="128" t="s">
-        <v>74</v>
-      </c>
-      <c r="B59" s="129"/>
+      <c r="A59" s="127" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="128"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="130" t="s">
-        <v>73</v>
-      </c>
-      <c r="B60" s="131"/>
+      <c r="A60" s="197" t="s">
+        <v>67</v>
+      </c>
+      <c r="B60" s="198"/>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="132"/>
-      <c r="B61" s="133"/>
+      <c r="A61" s="199"/>
+      <c r="B61" s="200"/>
     </row>
     <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="121" t="s">
-        <v>93</v>
-      </c>
-      <c r="B62" s="122"/>
+      <c r="A62" s="195" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" s="196"/>
     </row>
   </sheetData>
-  <mergeCells count="64">
+  <mergeCells count="62">
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B61"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="C19:E19"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="C28:E28"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="A56:B56"/>
@@ -3591,54 +3700,6 @@
     <mergeCell ref="C37:E37"/>
     <mergeCell ref="A42:B42"/>
     <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="C25:E25"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:E28"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="C20:E20"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B61"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="B47:B50"/>
   </mergeCells>
   <pageMargins left="0.19685039370078741" right="0.11811023622047245" top="0.15748031496062992" bottom="0.15748031496062992" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -3647,729 +3708,898 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:K85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="3" width="29.5703125" customWidth="1"/>
-    <col min="4" max="5" width="29.5703125" style="93" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" style="92" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col min="4" max="4" width="29.5703125" customWidth="1"/>
+    <col min="5" max="6" width="29.5703125" style="92" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" s="93" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="247" t="s">
-        <v>176</v>
-      </c>
-      <c r="B2" s="248"/>
-      <c r="C2" s="248"/>
-      <c r="D2" s="248"/>
-      <c r="E2" s="248"/>
-      <c r="F2" s="249"/>
-    </row>
-    <row r="3" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="258" t="s">
+    <row r="1" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" s="92" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="221" t="s">
+        <v>197</v>
+      </c>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="223"/>
+    </row>
+    <row r="3" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="231" t="s">
+        <v>198</v>
+      </c>
+      <c r="C3" s="231"/>
+      <c r="D3" s="231" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="231"/>
+      <c r="F3" s="231"/>
+      <c r="G3" s="231"/>
+    </row>
+    <row r="4" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D4" s="225" t="s">
+        <v>74</v>
+      </c>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="227"/>
+    </row>
+    <row r="5" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="320" t="s">
+        <v>196</v>
+      </c>
+      <c r="B5" s="120" t="s">
+        <v>184</v>
+      </c>
+      <c r="D5" s="225" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="226"/>
+      <c r="F5" s="226"/>
+      <c r="G5" s="227"/>
+    </row>
+    <row r="6" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="320"/>
+      <c r="B6" s="120" t="s">
+        <v>192</v>
+      </c>
+      <c r="D6" s="225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="226"/>
+      <c r="F6" s="226"/>
+      <c r="G6" s="227"/>
+    </row>
+    <row r="7" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="320"/>
+      <c r="B7" s="310" t="s">
+        <v>193</v>
+      </c>
+      <c r="D7" s="228" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="230"/>
+    </row>
+    <row r="8" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="320"/>
+      <c r="B8" s="224" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="224"/>
+      <c r="D8" s="228" t="s">
+        <v>75</v>
+      </c>
+      <c r="E8" s="229"/>
+      <c r="F8" s="229"/>
+      <c r="G8" s="230"/>
+    </row>
+    <row r="9" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="320"/>
+      <c r="B9" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="120"/>
+      <c r="D9" s="228" t="s">
+        <v>183</v>
+      </c>
+      <c r="E9" s="229"/>
+      <c r="F9" s="229"/>
+      <c r="G9" s="230"/>
+    </row>
+    <row r="10" spans="1:7" s="92" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="320"/>
+      <c r="B10" s="120" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" s="120"/>
+      <c r="D10" s="121"/>
+      <c r="E10" s="122"/>
+      <c r="F10" s="122"/>
+      <c r="G10" s="123"/>
+    </row>
+    <row r="11" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="321" t="s">
+        <v>194</v>
+      </c>
+      <c r="B11" s="318" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="315"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="123"/>
+    </row>
+    <row r="12" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="321"/>
+      <c r="B12" s="224" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="316"/>
+      <c r="D12" s="122"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="122"/>
+      <c r="G12" s="123"/>
+    </row>
+    <row r="13" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="321"/>
+      <c r="B13" s="224" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="316"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="122"/>
+      <c r="F13" s="122"/>
+      <c r="G13" s="123"/>
+    </row>
+    <row r="14" spans="1:7" s="92" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="321"/>
+      <c r="B14" s="319" t="s">
+        <v>156</v>
+      </c>
+      <c r="C14" s="317"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="122"/>
+      <c r="F14" s="122"/>
+      <c r="G14" s="123"/>
+    </row>
+    <row r="15" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="320" t="s">
+        <v>195</v>
+      </c>
+      <c r="B15" s="322" t="s">
+        <v>185</v>
+      </c>
+      <c r="C15" s="312"/>
+      <c r="D15" s="322" t="s">
+        <v>185</v>
+      </c>
+      <c r="E15" s="122"/>
+      <c r="F15" s="122"/>
+      <c r="G15" s="123"/>
+    </row>
+    <row r="16" spans="1:7" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="320"/>
+      <c r="B16" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="C16" s="313"/>
+      <c r="D16" s="120" t="s">
+        <v>186</v>
+      </c>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="123"/>
+    </row>
+    <row r="17" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="320"/>
+      <c r="B17" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="C17" s="313"/>
+      <c r="D17" s="120" t="s">
+        <v>187</v>
+      </c>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="123"/>
+    </row>
+    <row r="18" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="320"/>
+      <c r="B18" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="313"/>
+      <c r="D18" s="120" t="s">
+        <v>188</v>
+      </c>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="123"/>
+    </row>
+    <row r="19" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="320"/>
+      <c r="B19" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="313"/>
+      <c r="D19" s="120" t="s">
+        <v>189</v>
+      </c>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="123"/>
+    </row>
+    <row r="20" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="320"/>
+      <c r="B20" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="313"/>
+      <c r="D20" s="120" t="s">
+        <v>190</v>
+      </c>
+      <c r="E20" s="122"/>
+      <c r="F20" s="122"/>
+      <c r="G20" s="123"/>
+    </row>
+    <row r="21" spans="1:9" s="92" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="320"/>
+      <c r="B21" s="323" t="s">
+        <v>191</v>
+      </c>
+      <c r="C21" s="314"/>
+      <c r="D21" s="323" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="122"/>
+      <c r="F21" s="122"/>
+      <c r="G21" s="123"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="311" t="s">
+        <v>162</v>
+      </c>
+      <c r="C22" s="311"/>
+      <c r="D22" s="240" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="241"/>
+      <c r="F22" s="241"/>
+      <c r="G22" s="242"/>
+    </row>
+    <row r="23" spans="1:9" s="92" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="232" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="233"/>
+      <c r="D23" s="243" t="s">
+        <v>157</v>
+      </c>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="245"/>
+    </row>
+    <row r="24" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="234" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="235"/>
+      <c r="D24" s="246" t="s">
+        <v>158</v>
+      </c>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="248"/>
+    </row>
+    <row r="25" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="236"/>
+      <c r="C25" s="237"/>
+      <c r="D25" s="249" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="250"/>
+      <c r="F25" s="249" t="s">
+        <v>159</v>
+      </c>
+      <c r="G25" s="250"/>
+      <c r="H25" s="110"/>
+    </row>
+    <row r="26" spans="1:9" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="238"/>
+      <c r="C26" s="239"/>
+      <c r="D26" s="251" t="s">
         <v>160</v>
       </c>
-      <c r="B3" s="258"/>
-      <c r="C3" s="258" t="s">
+      <c r="E26" s="252"/>
+      <c r="F26" s="251" t="s">
         <v>161</v>
       </c>
-      <c r="D3" s="258"/>
-      <c r="E3" s="258"/>
-      <c r="F3" s="258"/>
-    </row>
-    <row r="4" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="250" t="s">
-        <v>162</v>
-      </c>
-      <c r="B4" s="251"/>
-      <c r="C4" s="252" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="254"/>
-    </row>
-    <row r="5" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="250" t="s">
+      <c r="G26" s="252"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="218" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="218"/>
+      <c r="D27" s="217" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" s="217"/>
+      <c r="F27" s="217"/>
+      <c r="G27" s="217"/>
+    </row>
+    <row r="28" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="253" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="251"/>
-      <c r="C5" s="252" t="s">
+      <c r="C28" s="254"/>
+      <c r="D28" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="220"/>
+      <c r="F28" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="220"/>
+    </row>
+    <row r="29" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C29" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D29" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E29" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="H29" s="98"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="218" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="219"/>
+      <c r="D30" s="217" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="253"/>
-      <c r="E5" s="253"/>
-      <c r="F5" s="254"/>
-    </row>
-    <row r="6" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="250" t="s">
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="108"/>
+      <c r="I30" s="108"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="253" t="s">
+        <v>163</v>
+      </c>
+      <c r="C31" s="254"/>
+      <c r="D31" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="220"/>
+      <c r="F31" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="220"/>
+    </row>
+    <row r="32" spans="1:9" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="114" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="251"/>
-      <c r="C6" s="252" t="s">
+      <c r="C32" s="91" t="s">
+        <v>165</v>
+      </c>
+      <c r="D32" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E32" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G32" s="114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" s="218" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="219"/>
+      <c r="D33" s="217" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="217"/>
+      <c r="F33" s="217"/>
+      <c r="G33" s="217"/>
+      <c r="H33" s="92"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" s="133" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="134"/>
+      <c r="D34" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E34" s="220"/>
+      <c r="F34" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="220"/>
+      <c r="H34" s="92"/>
+    </row>
+    <row r="35" spans="2:11" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C35" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D35" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E35" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F35" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" s="218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="219"/>
+      <c r="D36" s="217" t="s">
+        <v>17</v>
+      </c>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+      <c r="H36" s="92"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" s="133" t="s">
+        <v>163</v>
+      </c>
+      <c r="C37" s="134"/>
+      <c r="D37" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="220"/>
+      <c r="F37" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="220"/>
+      <c r="H37" s="92"/>
+    </row>
+    <row r="38" spans="2:11" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="113" t="s">
+        <v>164</v>
+      </c>
+      <c r="C38" s="116" t="s">
+        <v>165</v>
+      </c>
+      <c r="D38" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E38" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F38" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="109"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="217"/>
+      <c r="F39" s="217"/>
+      <c r="G39" s="217"/>
+      <c r="H39" s="92"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E40" s="220"/>
+      <c r="F40" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G40" s="220"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F41" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="217" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="217"/>
+      <c r="F42" s="217"/>
+      <c r="G42" s="217"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="220" t="s">
+        <v>15</v>
+      </c>
+      <c r="E43" s="220"/>
+      <c r="F43" s="220" t="s">
+        <v>16</v>
+      </c>
+      <c r="G43" s="220"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="112"/>
+      <c r="C44" s="112"/>
+      <c r="D44" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="114" t="s">
+        <v>165</v>
+      </c>
+      <c r="F44" s="114" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="114" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="134"/>
+      <c r="F45" s="134"/>
+      <c r="G45" s="132"/>
+      <c r="I45" s="45"/>
+      <c r="K45" s="45"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="240" t="s">
+        <v>166</v>
+      </c>
+      <c r="E46" s="241"/>
+      <c r="F46" s="241"/>
+      <c r="G46" s="242"/>
+    </row>
+    <row r="47" spans="2:11" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D47" s="255" t="s">
+        <v>167</v>
+      </c>
+      <c r="E47" s="256"/>
+      <c r="F47" s="256"/>
+      <c r="G47" s="257"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="253"/>
-      <c r="E6" s="253"/>
-      <c r="F6" s="254"/>
-    </row>
-    <row r="7" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="250" t="s">
-        <v>165</v>
-      </c>
-      <c r="B7" s="251"/>
-      <c r="C7" s="255" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="256"/>
-      <c r="E7" s="256"/>
-      <c r="F7" s="257"/>
-    </row>
-    <row r="8" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="250"/>
-      <c r="B8" s="251"/>
-      <c r="C8" s="255" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="257"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="231" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="231"/>
-      <c r="C9" s="218" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="219"/>
-      <c r="E9" s="219"/>
-      <c r="F9" s="220"/>
-    </row>
-    <row r="10" spans="1:7" s="93" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="232" t="s">
-        <v>180</v>
-      </c>
-      <c r="B10" s="233"/>
-      <c r="C10" s="241" t="s">
-        <v>166</v>
-      </c>
-      <c r="D10" s="242"/>
-      <c r="E10" s="242"/>
-      <c r="F10" s="243"/>
-    </row>
-    <row r="11" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="234" t="s">
-        <v>181</v>
-      </c>
-      <c r="B11" s="235"/>
-      <c r="C11" s="244" t="s">
-        <v>167</v>
-      </c>
-      <c r="D11" s="245"/>
-      <c r="E11" s="245"/>
-      <c r="F11" s="246"/>
-    </row>
-    <row r="12" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="236"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="227" t="s">
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="119"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D49" s="258" t="s">
+        <v>1</v>
+      </c>
+      <c r="E49" s="258"/>
+      <c r="F49" s="258"/>
+      <c r="G49" s="258"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D50" s="258" t="s">
+        <v>8</v>
+      </c>
+      <c r="E50" s="258"/>
+      <c r="F50" s="258"/>
+      <c r="G50" s="258"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="258" t="s">
         <v>17</v>
       </c>
-      <c r="D12" s="228"/>
-      <c r="E12" s="227" t="s">
-        <v>168</v>
-      </c>
-      <c r="F12" s="228"/>
-      <c r="G12" s="111"/>
-    </row>
-    <row r="13" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="238"/>
-      <c r="B13" s="239"/>
-      <c r="C13" s="229" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="230"/>
-      <c r="E13" s="229" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="230"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="226" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="226"/>
-      <c r="C14" s="240" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" s="240"/>
-      <c r="E14" s="240"/>
-      <c r="F14" s="240"/>
-    </row>
-    <row r="15" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="224" t="s">
-        <v>172</v>
-      </c>
-      <c r="B15" s="225"/>
-      <c r="C15" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="217"/>
-      <c r="E15" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="217"/>
-    </row>
-    <row r="16" spans="1:7" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="B16" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="C16" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E16" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="G16" s="99"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="226" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="259"/>
-      <c r="C17" s="240" t="s">
-        <v>1</v>
-      </c>
-      <c r="D17" s="240"/>
-      <c r="E17" s="240"/>
-      <c r="F17" s="240"/>
-      <c r="G17" s="109"/>
-      <c r="H17" s="109"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="224" t="s">
-        <v>172</v>
-      </c>
-      <c r="B18" s="225"/>
-      <c r="C18" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" s="217"/>
-      <c r="E18" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="217"/>
-    </row>
-    <row r="19" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="B19" s="92" t="s">
-        <v>174</v>
-      </c>
-      <c r="C19" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D19" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F19" s="115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="226" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="259"/>
-      <c r="C20" s="240" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="240"/>
-      <c r="E20" s="240"/>
-      <c r="F20" s="240"/>
-      <c r="G20" s="93"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="197" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" s="198"/>
-      <c r="C21" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="217"/>
-      <c r="E21" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="217"/>
-      <c r="G21" s="93"/>
-    </row>
-    <row r="22" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D22" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E22" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F22" s="115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="226" t="s">
-        <v>5</v>
-      </c>
-      <c r="B23" s="259"/>
-      <c r="C23" s="240" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="240"/>
-      <c r="E23" s="240"/>
-      <c r="F23" s="240"/>
-      <c r="G23" s="93"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="197" t="s">
-        <v>172</v>
-      </c>
-      <c r="B24" s="198"/>
-      <c r="C24" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="217"/>
-      <c r="E24" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="217"/>
-      <c r="G24" s="93"/>
-    </row>
-    <row r="25" spans="1:10" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="114" t="s">
-        <v>173</v>
-      </c>
-      <c r="B25" s="117" t="s">
-        <v>174</v>
-      </c>
-      <c r="C25" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D25" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E25" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F25" s="115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="110"/>
-      <c r="B26" s="94"/>
-      <c r="C26" s="240" t="s">
-        <v>11</v>
-      </c>
-      <c r="D26" s="240"/>
-      <c r="E26" s="240"/>
-      <c r="F26" s="240"/>
-      <c r="G26" s="93"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C27" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="217"/>
-      <c r="E27" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F27" s="217"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C28" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D28" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E28" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F28" s="115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C29" s="240" t="s">
+      <c r="E51" s="258"/>
+      <c r="F51" s="258"/>
+      <c r="G51" s="258"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E52" s="258"/>
+      <c r="F52" s="258"/>
+      <c r="G52" s="258"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="258" t="s">
         <v>7</v>
       </c>
-      <c r="D29" s="240"/>
-      <c r="E29" s="240"/>
-      <c r="F29" s="240"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C30" s="217" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="217"/>
-      <c r="E30" s="217" t="s">
-        <v>18</v>
-      </c>
-      <c r="F30" s="217"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="D31" s="115" t="s">
-        <v>174</v>
-      </c>
-      <c r="E31" s="115" t="s">
-        <v>173</v>
-      </c>
-      <c r="F31" s="115" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="112"/>
-      <c r="B32" s="112"/>
-      <c r="C32" s="197"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="196"/>
-      <c r="H32" s="45"/>
-      <c r="J32" s="45"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="218" t="s">
-        <v>175</v>
-      </c>
-      <c r="D33" s="219"/>
-      <c r="E33" s="219"/>
-      <c r="F33" s="220"/>
-    </row>
-    <row r="34" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C34" s="221" t="s">
-        <v>177</v>
-      </c>
-      <c r="D34" s="222"/>
-      <c r="E34" s="222"/>
-      <c r="F34" s="223"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C35" s="118" t="s">
-        <v>6</v>
-      </c>
-      <c r="D35" s="119"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="120"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C36" s="216" t="s">
-        <v>1</v>
-      </c>
-      <c r="D36" s="216"/>
-      <c r="E36" s="216"/>
-      <c r="F36" s="216"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C37" s="216" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="216"/>
-      <c r="E37" s="216"/>
-      <c r="F37" s="216"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="112"/>
-      <c r="B38" s="112"/>
-      <c r="C38" s="216" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" s="216"/>
-      <c r="E38" s="216"/>
-      <c r="F38" s="216"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="43"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="216" t="s">
-        <v>11</v>
-      </c>
-      <c r="D39" s="216"/>
-      <c r="E39" s="216"/>
-      <c r="F39" s="216"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="94"/>
-      <c r="C40" s="216" t="s">
-        <v>7</v>
-      </c>
-      <c r="D40" s="216"/>
-      <c r="E40" s="216"/>
-      <c r="F40" s="216"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="94"/>
-      <c r="B41" s="94"/>
-      <c r="C41" s="94"/>
-      <c r="D41" s="94"/>
-      <c r="E41" s="94"/>
-      <c r="F41" s="94"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="94"/>
-      <c r="B42" s="94"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-    </row>
-    <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6"/>
-      <c r="D43" s="94"/>
-      <c r="E43" s="94"/>
-      <c r="F43" s="94"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="56"/>
-      <c r="B44" s="56"/>
-      <c r="C44" s="56"/>
-      <c r="D44" s="116"/>
-      <c r="E44" s="116"/>
-      <c r="F44" s="116"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="56"/>
-      <c r="B45" s="56"/>
-      <c r="C45" s="56"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
-      <c r="B46" s="94"/>
-      <c r="C46" s="94"/>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="56"/>
-      <c r="B47" s="56"/>
-      <c r="C47" s="56"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="56"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="56"/>
-      <c r="D48" s="112"/>
-      <c r="E48" s="112"/>
-      <c r="F48" s="112"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="43"/>
-      <c r="B49" s="43"/>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="43"/>
-      <c r="F49" s="43"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="112"/>
-      <c r="B53" s="112"/>
-      <c r="C53" s="112"/>
-      <c r="D53" s="112"/>
-      <c r="E53" s="112"/>
-      <c r="F53" s="112"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="43"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="94"/>
-      <c r="E56" s="94"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="56"/>
+      <c r="E53" s="258"/>
+      <c r="F53" s="258"/>
+      <c r="G53" s="258"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+      <c r="G54" s="93"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="115"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="115"/>
+      <c r="G55" s="115"/>
+    </row>
+    <row r="56" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B56" s="6"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+      <c r="G56" s="93"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B57" s="56"/>
       <c r="C57" s="56"/>
       <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="94"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="56"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="115"/>
+      <c r="G57" s="115"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B58" s="56"/>
       <c r="C58" s="56"/>
       <c r="D58" s="56"/>
-      <c r="E58" s="56"/>
-      <c r="F58" s="94"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="56"/>
-      <c r="B59" s="56"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
-      <c r="F59" s="94"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="56"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="93"/>
+      <c r="C59" s="93"/>
+      <c r="D59" s="93"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B60" s="56"/>
       <c r="C60" s="56"/>
       <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="94"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="56"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B61" s="56"/>
       <c r="C61" s="56"/>
       <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D64" s="94"/>
-      <c r="E64" s="94"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D65" s="94"/>
-      <c r="E65" s="94"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D66" s="94"/>
-      <c r="E66" s="94"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D67" s="94"/>
-      <c r="E67" s="94"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D68" s="94"/>
-      <c r="E68" s="94"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="5"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="56"/>
+      <c r="E61" s="111"/>
+      <c r="F61" s="111"/>
+      <c r="G61" s="111"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="43"/>
+      <c r="C62" s="43"/>
+      <c r="D62" s="43"/>
+      <c r="E62" s="43"/>
+      <c r="F62" s="43"/>
+      <c r="G62" s="43"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="111"/>
+      <c r="C66" s="111"/>
+      <c r="D66" s="111"/>
+      <c r="E66" s="111"/>
+      <c r="F66" s="111"/>
+      <c r="G66" s="111"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="43"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+    </row>
+    <row r="69" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="35"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="93"/>
+      <c r="F69" s="93"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="56"/>
+      <c r="C70" s="56"/>
+      <c r="D70" s="56"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="93"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B71" s="56"/>
       <c r="C71" s="56"/>
       <c r="D71" s="56"/>
       <c r="E71" s="56"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="56"/>
+      <c r="F71" s="56"/>
+      <c r="G71" s="93"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B72" s="56"/>
       <c r="C72" s="56"/>
       <c r="D72" s="56"/>
       <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="93"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B73" s="56"/>
+      <c r="C73" s="56"/>
+      <c r="D73" s="56"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="93"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B74" s="56"/>
+      <c r="C74" s="56"/>
+      <c r="D74" s="56"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="56"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E77" s="93"/>
+      <c r="F77" s="93"/>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E78" s="93"/>
+      <c r="F78" s="93"/>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E79" s="93"/>
+      <c r="F79" s="93"/>
+    </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E80" s="93"/>
+      <c r="F80" s="93"/>
+    </row>
+    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E81" s="93"/>
+      <c r="F81" s="93"/>
+    </row>
+    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B83" s="5"/>
+    </row>
+    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B84" s="56"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="56"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="56"/>
+    </row>
+    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B85" s="56"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="56"/>
+      <c r="E85" s="56"/>
+      <c r="F85" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="57">
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B13"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C40:F40"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
+  <mergeCells count="61">
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A15:A21"/>
+    <mergeCell ref="D53:G53"/>
+    <mergeCell ref="D49:G49"/>
+    <mergeCell ref="D50:G50"/>
+    <mergeCell ref="D51:G51"/>
+    <mergeCell ref="D52:G52"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="D46:G46"/>
+    <mergeCell ref="D47:G47"/>
+    <mergeCell ref="D45:G45"/>
+    <mergeCell ref="D42:G42"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C26"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D30:G30"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="D36:G36"/>
+    <mergeCell ref="D33:G33"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="85" fitToHeight="2" orientation="portrait" r:id="rId1"/>
@@ -4381,10 +4611,10 @@
   <dimension ref="A1:O56"/>
   <sheetViews>
     <sheetView topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.85546875" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
@@ -4393,310 +4623,310 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="292" t="s">
+      <c r="A1" s="276" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="276"/>
+      <c r="C1" s="276"/>
+      <c r="D1" s="276"/>
+      <c r="E1" s="276"/>
+      <c r="F1" s="276"/>
+      <c r="G1" s="276"/>
+    </row>
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="277" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="278"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="279"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="280"/>
+      <c r="B3" s="281"/>
+      <c r="C3" s="281"/>
+      <c r="D3" s="281"/>
+      <c r="E3" s="281"/>
+      <c r="F3" s="281"/>
+      <c r="G3" s="282"/>
+      <c r="I3" s="259" t="s">
+        <v>72</v>
+      </c>
+      <c r="J3" s="259"/>
+      <c r="K3" s="259"/>
+      <c r="L3" s="259"/>
+      <c r="M3" s="259"/>
+      <c r="N3" s="259"/>
+      <c r="O3" s="259"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="292"/>
-      <c r="C1" s="292"/>
-      <c r="D1" s="292"/>
-      <c r="E1" s="292"/>
-      <c r="F1" s="292"/>
-      <c r="G1" s="292"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="293" t="s">
-        <v>142</v>
-      </c>
-      <c r="B2" s="294"/>
-      <c r="C2" s="294"/>
-      <c r="D2" s="294"/>
-      <c r="E2" s="294"/>
-      <c r="F2" s="294"/>
-      <c r="G2" s="295"/>
-    </row>
-    <row r="3" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="296"/>
-      <c r="B3" s="297"/>
-      <c r="C3" s="297"/>
-      <c r="D3" s="297"/>
-      <c r="E3" s="297"/>
-      <c r="F3" s="297"/>
-      <c r="G3" s="298"/>
-      <c r="I3" s="299" t="s">
-        <v>78</v>
-      </c>
-      <c r="J3" s="299"/>
-      <c r="K3" s="299"/>
-      <c r="L3" s="299"/>
-      <c r="M3" s="299"/>
-      <c r="N3" s="299"/>
-      <c r="O3" s="299"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="89"/>
-      <c r="C4" s="89"/>
-      <c r="D4" s="89"/>
-      <c r="E4" s="89"/>
-      <c r="F4" s="89"/>
-      <c r="G4" s="90"/>
+      <c r="B4" s="88"/>
+      <c r="C4" s="88"/>
+      <c r="D4" s="88"/>
+      <c r="E4" s="88"/>
+      <c r="F4" s="88"/>
+      <c r="G4" s="89"/>
       <c r="H4" s="52"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="84"/>
+      <c r="A5" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="83"/>
       <c r="H5" s="52"/>
     </row>
     <row r="6" spans="1:15" s="52" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85" t="s">
-        <v>141</v>
-      </c>
-      <c r="B6" s="86"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="87"/>
+      <c r="A6" s="84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="105" t="s">
+      <c r="A7" s="104" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D7" s="104" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="101" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="G7" s="101" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="105" t="s">
+    </row>
+    <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="101" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="C8" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="G7" s="102" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="102" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D8" s="102" t="s">
-        <v>96</v>
+      <c r="D8" s="101" t="s">
+        <v>90</v>
       </c>
       <c r="E8" s="46"/>
       <c r="F8" s="46"/>
       <c r="G8" s="46"/>
     </row>
-    <row r="9" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="108"/>
-      <c r="C9" s="108"/>
-      <c r="D9" s="108"/>
+    <row r="9" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="107"/>
+      <c r="D9" s="107"/>
       <c r="E9" s="46"/>
       <c r="F9" s="46"/>
       <c r="G9" s="46"/>
     </row>
-    <row r="10" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="280" t="s">
+    <row r="10" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="291" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="292"/>
+      <c r="C10" s="292"/>
+      <c r="D10" s="292"/>
+      <c r="E10" s="292"/>
+      <c r="F10" s="292"/>
+      <c r="G10" s="293"/>
+    </row>
+    <row r="11" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="288" t="s">
+        <v>151</v>
+      </c>
+      <c r="B11" s="289"/>
+      <c r="C11" s="289"/>
+      <c r="D11" s="289"/>
+      <c r="E11" s="289"/>
+      <c r="F11" s="289"/>
+      <c r="G11" s="290"/>
+    </row>
+    <row r="12" spans="1:15" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="294" t="s">
+        <v>152</v>
+      </c>
+      <c r="B12" s="294"/>
+      <c r="C12" s="294"/>
+      <c r="D12" s="294"/>
+      <c r="E12" s="294"/>
+      <c r="F12" s="294"/>
+      <c r="G12" s="295"/>
+      <c r="I12" s="95"/>
+    </row>
+    <row r="13" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="296" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="296"/>
+      <c r="C13" s="296"/>
+      <c r="D13" s="296"/>
+      <c r="E13" s="296"/>
+      <c r="F13" s="296"/>
+      <c r="G13" s="297"/>
+      <c r="H13" s="93"/>
+      <c r="I13" s="93"/>
+      <c r="J13" s="93"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="298" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="298"/>
+      <c r="C14" s="298"/>
+      <c r="D14" s="298"/>
+      <c r="E14" s="298"/>
+      <c r="F14" s="298"/>
+      <c r="G14" s="299"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="101" t="s">
+        <v>97</v>
+      </c>
+      <c r="B15" s="101" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="101" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="101" t="s">
+        <v>102</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>103</v>
+      </c>
+      <c r="F15" s="101" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="101" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="101" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="93"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+    </row>
+    <row r="18" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="105"/>
+      <c r="B18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="105"/>
+      <c r="G18" s="105"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="286" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="274"/>
+      <c r="C19" s="274"/>
+      <c r="D19" s="274"/>
+      <c r="E19" s="274"/>
+      <c r="F19" s="274"/>
+      <c r="G19" s="287"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="306" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="281"/>
-      <c r="C10" s="281"/>
-      <c r="D10" s="281"/>
-      <c r="E10" s="281"/>
-      <c r="F10" s="281"/>
-      <c r="G10" s="282"/>
-    </row>
-    <row r="11" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="277" t="s">
-        <v>158</v>
-      </c>
-      <c r="B11" s="278"/>
-      <c r="C11" s="278"/>
-      <c r="D11" s="278"/>
-      <c r="E11" s="278"/>
-      <c r="F11" s="278"/>
-      <c r="G11" s="279"/>
-    </row>
-    <row r="12" spans="1:15" s="93" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="283" t="s">
-        <v>159</v>
-      </c>
-      <c r="B12" s="283"/>
-      <c r="C12" s="283"/>
-      <c r="D12" s="283"/>
-      <c r="E12" s="283"/>
-      <c r="F12" s="283"/>
-      <c r="G12" s="284"/>
-      <c r="I12" s="96"/>
-    </row>
-    <row r="13" spans="1:15" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="285" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="285"/>
-      <c r="C13" s="285"/>
-      <c r="D13" s="285"/>
-      <c r="E13" s="285"/>
-      <c r="F13" s="285"/>
-      <c r="G13" s="286"/>
-      <c r="H13" s="94"/>
-      <c r="I13" s="94"/>
-      <c r="J13" s="94"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="287" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="287"/>
-      <c r="C14" s="287"/>
-      <c r="D14" s="287"/>
-      <c r="E14" s="287"/>
-      <c r="F14" s="287"/>
-      <c r="G14" s="288"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="102" t="s">
-        <v>103</v>
-      </c>
-      <c r="B15" s="102" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>107</v>
-      </c>
-      <c r="D15" s="102" t="s">
-        <v>108</v>
-      </c>
-      <c r="E15" s="102" t="s">
-        <v>109</v>
-      </c>
-      <c r="F15" s="102" t="s">
-        <v>110</v>
-      </c>
-      <c r="G15" s="102" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="102" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-    </row>
-    <row r="18" spans="1:10" s="38" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="106"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="106"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="106"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="275" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="267"/>
-      <c r="C19" s="267"/>
-      <c r="D19" s="267"/>
-      <c r="E19" s="267"/>
-      <c r="F19" s="267"/>
-      <c r="G19" s="276"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="272" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="273"/>
-      <c r="C20" s="273"/>
-      <c r="D20" s="273"/>
-      <c r="E20" s="273"/>
-      <c r="F20" s="273"/>
-      <c r="G20" s="274"/>
-      <c r="H20" s="306"/>
-      <c r="I20" s="306"/>
-      <c r="J20" s="306"/>
+      <c r="B20" s="307"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="307"/>
+      <c r="E20" s="307"/>
+      <c r="F20" s="307"/>
+      <c r="G20" s="308"/>
+      <c r="H20" s="269"/>
+      <c r="I20" s="269"/>
+      <c r="J20" s="269"/>
     </row>
     <row r="21" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="300" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="301"/>
-      <c r="C21" s="301"/>
-      <c r="D21" s="301"/>
-      <c r="E21" s="301"/>
-      <c r="F21" s="301"/>
-      <c r="G21" s="302"/>
+      <c r="A21" s="260" t="s">
+        <v>139</v>
+      </c>
+      <c r="B21" s="261"/>
+      <c r="C21" s="261"/>
+      <c r="D21" s="261"/>
+      <c r="E21" s="261"/>
+      <c r="F21" s="261"/>
+      <c r="G21" s="262"/>
     </row>
     <row r="22" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="B22" s="96"/>
-      <c r="C22" s="96"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="96"/>
-      <c r="F22" s="96"/>
-      <c r="G22" s="97"/>
+      <c r="A22" s="94" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="95"/>
+      <c r="C22" s="95"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="95"/>
+      <c r="G22" s="96"/>
     </row>
     <row r="23" spans="1:10" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B23" s="100"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="100"/>
-      <c r="F23" s="100"/>
-      <c r="G23" s="107" t="s">
-        <v>143</v>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="106" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="64" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H24" s="65"/>
     </row>
     <row r="25" spans="1:10" s="64" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="303" t="s">
-        <v>35</v>
-      </c>
-      <c r="B25" s="304"/>
-      <c r="C25" s="304"/>
-      <c r="D25" s="304"/>
-      <c r="E25" s="304"/>
-      <c r="F25" s="304"/>
-      <c r="G25" s="305"/>
+      <c r="A25" s="266" t="s">
+        <v>32</v>
+      </c>
+      <c r="B25" s="267"/>
+      <c r="C25" s="267"/>
+      <c r="D25" s="267"/>
+      <c r="E25" s="267"/>
+      <c r="F25" s="267"/>
+      <c r="G25" s="268"/>
       <c r="H25" s="65"/>
     </row>
     <row r="26" spans="1:10" s="64" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -4708,7 +4938,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -4719,7 +4949,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B28" s="13"/>
       <c r="C28" s="14"/>
@@ -4729,62 +4959,62 @@
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="269" t="s">
-        <v>148</v>
-      </c>
-      <c r="B29" s="270"/>
-      <c r="C29" s="270"/>
-      <c r="D29" s="271"/>
-      <c r="E29" s="269" t="s">
-        <v>149</v>
-      </c>
-      <c r="F29" s="270"/>
-      <c r="G29" s="271"/>
+      <c r="A29" s="263" t="s">
+        <v>141</v>
+      </c>
+      <c r="B29" s="264"/>
+      <c r="C29" s="264"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="263" t="s">
+        <v>142</v>
+      </c>
+      <c r="F29" s="264"/>
+      <c r="G29" s="265"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="266" t="s">
-        <v>37</v>
-      </c>
-      <c r="B31" s="267"/>
-      <c r="C31" s="267"/>
-      <c r="D31" s="267"/>
-      <c r="E31" s="267"/>
-      <c r="F31" s="267"/>
-      <c r="G31" s="268"/>
+      <c r="A31" s="273" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="274"/>
+      <c r="C31" s="274"/>
+      <c r="D31" s="274"/>
+      <c r="E31" s="274"/>
+      <c r="F31" s="274"/>
+      <c r="G31" s="275"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="263" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="264"/>
-      <c r="C32" s="264"/>
-      <c r="D32" s="264"/>
-      <c r="E32" s="264"/>
-      <c r="F32" s="264"/>
-      <c r="G32" s="265"/>
+      <c r="A32" s="303" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="304"/>
+      <c r="C32" s="304"/>
+      <c r="D32" s="304"/>
+      <c r="E32" s="304"/>
+      <c r="F32" s="304"/>
+      <c r="G32" s="305"/>
       <c r="H32" s="33"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="260" t="s">
-        <v>182</v>
-      </c>
-      <c r="B33" s="261"/>
-      <c r="C33" s="261"/>
-      <c r="D33" s="261"/>
-      <c r="E33" s="261"/>
-      <c r="F33" s="261"/>
-      <c r="G33" s="262"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="91"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
+      <c r="A33" s="300" t="s">
+        <v>172</v>
+      </c>
+      <c r="B33" s="301"/>
+      <c r="C33" s="301"/>
+      <c r="D33" s="301"/>
+      <c r="E33" s="301"/>
+      <c r="F33" s="301"/>
+      <c r="G33" s="302"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
+      <c r="N33" s="90"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="G34" s="107" t="s">
-        <v>143</v>
+      <c r="G34" s="106" t="s">
+        <v>136</v>
       </c>
       <c r="H34" s="46"/>
     </row>
@@ -4792,74 +5022,74 @@
       <c r="H35" s="46"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A36" s="266" t="s">
-        <v>144</v>
-      </c>
-      <c r="B36" s="267"/>
-      <c r="C36" s="267"/>
-      <c r="D36" s="267"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="268"/>
+      <c r="A36" s="273" t="s">
+        <v>137</v>
+      </c>
+      <c r="B36" s="274"/>
+      <c r="C36" s="274"/>
+      <c r="D36" s="274"/>
+      <c r="E36" s="274"/>
+      <c r="F36" s="274"/>
+      <c r="G36" s="275"/>
       <c r="H36" s="46"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A37" s="289" t="s">
-        <v>153</v>
-      </c>
-      <c r="B37" s="290"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="290"/>
-      <c r="F37" s="290"/>
-      <c r="G37" s="291"/>
+      <c r="A37" s="270" t="s">
+        <v>146</v>
+      </c>
+      <c r="B37" s="271"/>
+      <c r="C37" s="271"/>
+      <c r="D37" s="271"/>
+      <c r="E37" s="271"/>
+      <c r="F37" s="271"/>
+      <c r="G37" s="272"/>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="B38" s="96"/>
-      <c r="C38" s="96"/>
-      <c r="D38" s="96"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="97"/>
+      <c r="A38" s="94" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="95"/>
+      <c r="C38" s="95"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="95"/>
+      <c r="G38" s="96"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="G39" s="104" t="s">
-        <v>143</v>
+      <c r="G39" s="103" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="266" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="267"/>
-      <c r="C41" s="267"/>
-      <c r="D41" s="267"/>
-      <c r="E41" s="267"/>
-      <c r="F41" s="267"/>
-      <c r="G41" s="268"/>
+      <c r="A41" s="273" t="s">
+        <v>35</v>
+      </c>
+      <c r="B41" s="274"/>
+      <c r="C41" s="274"/>
+      <c r="D41" s="274"/>
+      <c r="E41" s="274"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="275"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="252" t="s">
-        <v>75</v>
-      </c>
-      <c r="B42" s="253"/>
-      <c r="C42" s="253"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="253"/>
-      <c r="F42" s="253"/>
-      <c r="G42" s="254"/>
+      <c r="A42" s="225" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" s="226"/>
+      <c r="C42" s="226"/>
+      <c r="D42" s="226"/>
+      <c r="E42" s="226"/>
+      <c r="F42" s="226"/>
+      <c r="G42" s="227"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B43" s="101"/>
-      <c r="C43" s="101"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="104" t="s">
-        <v>143</v>
+      <c r="B43" s="100"/>
+      <c r="C43" s="100"/>
+      <c r="D43" s="100"/>
+      <c r="E43" s="100"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="103" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.25">
@@ -4872,15 +5102,15 @@
       <c r="G44" s="56"/>
     </row>
     <row r="45" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A45" s="266" t="s">
-        <v>157</v>
-      </c>
-      <c r="B45" s="267"/>
-      <c r="C45" s="267"/>
-      <c r="D45" s="267"/>
-      <c r="E45" s="267"/>
-      <c r="F45" s="267"/>
-      <c r="G45" s="268"/>
+      <c r="A45" s="273" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="274"/>
+      <c r="C45" s="274"/>
+      <c r="D45" s="274"/>
+      <c r="E45" s="274"/>
+      <c r="F45" s="274"/>
+      <c r="G45" s="275"/>
     </row>
     <row r="46" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A46" s="64"/>
@@ -4889,77 +5119,77 @@
       <c r="D46" s="64"/>
       <c r="E46" s="64"/>
       <c r="F46" s="64"/>
-      <c r="G46" s="103" t="s">
-        <v>143</v>
+      <c r="G46" s="102" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="1:14" s="64" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="48" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A48" s="307" t="s">
-        <v>156</v>
-      </c>
-      <c r="B48" s="308"/>
-      <c r="C48" s="308"/>
-      <c r="D48" s="308"/>
-      <c r="E48" s="308"/>
-      <c r="F48" s="308"/>
-      <c r="G48" s="309"/>
+      <c r="A48" s="283" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" s="284"/>
+      <c r="C48" s="284"/>
+      <c r="D48" s="284"/>
+      <c r="E48" s="284"/>
+      <c r="F48" s="284"/>
+      <c r="G48" s="285"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G49" s="103" t="s">
-        <v>143</v>
+      <c r="G49" s="102" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="266" t="s">
-        <v>155</v>
-      </c>
-      <c r="B51" s="267"/>
-      <c r="C51" s="267"/>
-      <c r="D51" s="267"/>
-      <c r="E51" s="267"/>
-      <c r="F51" s="267"/>
-      <c r="G51" s="268"/>
+      <c r="A51" s="273" t="s">
+        <v>148</v>
+      </c>
+      <c r="B51" s="274"/>
+      <c r="C51" s="274"/>
+      <c r="D51" s="274"/>
+      <c r="E51" s="274"/>
+      <c r="F51" s="274"/>
+      <c r="G51" s="275"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G52" s="103" t="s">
-        <v>143</v>
+      <c r="G52" s="102" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="266" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="267"/>
-      <c r="C54" s="267"/>
-      <c r="D54" s="267"/>
-      <c r="E54" s="267"/>
-      <c r="F54" s="267"/>
-      <c r="G54" s="268"/>
+      <c r="A54" s="273" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" s="274"/>
+      <c r="C54" s="274"/>
+      <c r="D54" s="274"/>
+      <c r="E54" s="274"/>
+      <c r="F54" s="274"/>
+      <c r="G54" s="275"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="252" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="253"/>
-      <c r="C55" s="253"/>
-      <c r="D55" s="253"/>
-      <c r="E55" s="253"/>
-      <c r="F55" s="253"/>
-      <c r="G55" s="254"/>
+      <c r="A55" s="225" t="s">
+        <v>71</v>
+      </c>
+      <c r="B55" s="226"/>
+      <c r="C55" s="226"/>
+      <c r="D55" s="226"/>
+      <c r="E55" s="226"/>
+      <c r="F55" s="226"/>
+      <c r="G55" s="227"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G56" s="103" t="s">
-        <v>143</v>
+      <c r="G56" s="102" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="I3:O3"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A20:G20"/>
     <mergeCell ref="A37:G37"/>
     <mergeCell ref="A36:G36"/>
     <mergeCell ref="A54:G54"/>
@@ -4976,12 +5206,12 @@
     <mergeCell ref="A10:G10"/>
     <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
+    <mergeCell ref="I3:O3"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="H20:J20"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A20:G20"/>
   </mergeCells>
   <dataValidations count="13">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A7">
@@ -5037,26 +5267,26 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="86.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="310" t="s">
-        <v>39</v>
+      <c r="A2" s="309" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="310"/>
+      <c r="A3" s="309"/>
     </row>
     <row r="4" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="28"/>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -5064,12 +5294,12 @@
     </row>
     <row r="7" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="27" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5078,32 +5308,32 @@
     <row r="10" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="23" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="23" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5111,22 +5341,22 @@
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="24" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5134,27 +5364,27 @@
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="23" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="23" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -5176,7 +5406,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5188,7 +5418,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5202,7 +5432,7 @@
       <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5216,7 +5446,7 @@
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
